--- a/dados_doutorado/Tabelas_Doutorado_Anuário_2019.xlsx
+++ b/dados_doutorado/Tabelas_Doutorado_Anuário_2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\Anuário2020_roberto\anuario2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_doutorado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 3.06" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="472">
   <si>
     <t>Feminino M</t>
   </si>
@@ -1296,9 +1296,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -1787,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1796,12 +1793,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5143,12 +5140,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>390</v>
@@ -5388,12 +5385,12 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>391</v>
@@ -11360,20 +11357,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L102" sqref="B3:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
@@ -11419,32 +11416,8 @@
       <c r="C3" t="s">
         <v>420</v>
       </c>
-      <c r="D3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I3" t="s">
-        <v>421</v>
-      </c>
-      <c r="J3" t="s">
-        <v>421</v>
-      </c>
       <c r="K3" t="s">
         <v>420</v>
-      </c>
-      <c r="L3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11457,32 +11430,8 @@
       <c r="C4" t="s">
         <v>420</v>
       </c>
-      <c r="D4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4" t="s">
-        <v>421</v>
-      </c>
-      <c r="I4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J4" t="s">
-        <v>421</v>
-      </c>
       <c r="K4" t="s">
         <v>420</v>
-      </c>
-      <c r="L4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11492,35 +11441,20 @@
       <c r="B5">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>421</v>
       </c>
-      <c r="D5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" t="s">
-        <v>422</v>
-      </c>
       <c r="F5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" t="s">
         <v>421</v>
       </c>
       <c r="H5" t="s">
         <v>420</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>421</v>
       </c>
-      <c r="J5" t="s">
-        <v>421</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>422</v>
-      </c>
-      <c r="L5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11530,35 +11464,17 @@
       <c r="B6">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>421</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>421</v>
       </c>
-      <c r="E6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>421</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>421</v>
-      </c>
-      <c r="I6" t="s">
-        <v>421</v>
-      </c>
-      <c r="J6" t="s">
-        <v>421</v>
-      </c>
-      <c r="K6" t="s">
-        <v>422</v>
-      </c>
-      <c r="L6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11568,32 +11484,8 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G7" t="s">
-        <v>421</v>
-      </c>
       <c r="H7" t="s">
         <v>420</v>
-      </c>
-      <c r="I7" t="s">
-        <v>421</v>
-      </c>
-      <c r="J7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K7" t="s">
-        <v>421</v>
       </c>
       <c r="L7" t="s">
         <v>420</v>
@@ -11606,35 +11498,20 @@
       <c r="B8">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
-        <v>421</v>
-      </c>
       <c r="D8" t="s">
         <v>420</v>
       </c>
       <c r="E8" t="s">
         <v>420</v>
       </c>
-      <c r="F8" t="s">
-        <v>421</v>
-      </c>
-      <c r="G8" t="s">
-        <v>421</v>
-      </c>
       <c r="H8" t="s">
         <v>420</v>
       </c>
-      <c r="I8" t="s">
-        <v>421</v>
-      </c>
-      <c r="J8" t="s">
-        <v>421</v>
-      </c>
       <c r="K8" t="s">
         <v>420</v>
       </c>
       <c r="L8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11644,35 +11521,20 @@
       <c r="B9">
         <v>65</v>
       </c>
-      <c r="C9" t="s">
-        <v>421</v>
-      </c>
       <c r="D9" t="s">
         <v>420</v>
       </c>
       <c r="E9" t="s">
         <v>420</v>
       </c>
-      <c r="F9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G9" t="s">
-        <v>421</v>
-      </c>
       <c r="H9" t="s">
         <v>420</v>
       </c>
-      <c r="I9" t="s">
-        <v>421</v>
-      </c>
-      <c r="J9" t="s">
-        <v>421</v>
-      </c>
       <c r="K9" t="s">
         <v>420</v>
       </c>
       <c r="L9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11683,34 +11545,28 @@
         <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" t="s">
         <v>421</v>
       </c>
       <c r="E10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" t="s">
         <v>424</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>421</v>
       </c>
-      <c r="G10" t="s">
-        <v>425</v>
-      </c>
-      <c r="H10" t="s">
-        <v>422</v>
-      </c>
       <c r="I10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J10" t="s">
         <v>420</v>
       </c>
       <c r="K10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11721,34 +11577,22 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" t="s">
         <v>421</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" t="s">
         <v>421</v>
-      </c>
-      <c r="F11" t="s">
-        <v>421</v>
-      </c>
-      <c r="G11" t="s">
-        <v>425</v>
-      </c>
-      <c r="H11" t="s">
-        <v>422</v>
       </c>
       <c r="I11" t="s">
         <v>420</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>426</v>
+      </c>
+      <c r="L11" t="s">
         <v>421</v>
-      </c>
-      <c r="K11" t="s">
-        <v>427</v>
-      </c>
-      <c r="L11" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -11758,35 +11602,11 @@
       <c r="B12">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" t="s">
-        <v>421</v>
-      </c>
       <c r="E12" t="s">
         <v>420</v>
       </c>
-      <c r="F12" t="s">
-        <v>421</v>
-      </c>
-      <c r="G12" t="s">
-        <v>421</v>
-      </c>
-      <c r="H12" t="s">
-        <v>421</v>
-      </c>
-      <c r="I12" t="s">
-        <v>421</v>
-      </c>
-      <c r="J12" t="s">
-        <v>421</v>
-      </c>
       <c r="K12" t="s">
         <v>420</v>
-      </c>
-      <c r="L12" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11796,23 +11616,8 @@
       <c r="B13">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" t="s">
-        <v>421</v>
-      </c>
       <c r="E13" t="s">
-        <v>423</v>
-      </c>
-      <c r="F13" t="s">
-        <v>421</v>
-      </c>
-      <c r="G13" t="s">
-        <v>421</v>
-      </c>
-      <c r="H13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I13" t="s">
         <v>420</v>
@@ -11821,7 +11626,7 @@
         <v>420</v>
       </c>
       <c r="K13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L13" t="s">
         <v>420</v>
@@ -11835,17 +11640,11 @@
         <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" t="s">
         <v>420</v>
       </c>
-      <c r="E14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F14" t="s">
-        <v>421</v>
-      </c>
       <c r="G14" t="s">
         <v>420</v>
       </c>
@@ -11853,16 +11652,16 @@
         <v>420</v>
       </c>
       <c r="I14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -11873,17 +11672,11 @@
         <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" t="s">
         <v>420</v>
       </c>
-      <c r="E15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F15" t="s">
-        <v>421</v>
-      </c>
       <c r="G15" t="s">
         <v>420</v>
       </c>
@@ -11891,16 +11684,16 @@
         <v>420</v>
       </c>
       <c r="I15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -11910,35 +11703,23 @@
       <c r="B16">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>421</v>
       </c>
-      <c r="D16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>422</v>
       </c>
-      <c r="F16" t="s">
-        <v>421</v>
-      </c>
-      <c r="G16" t="s">
-        <v>423</v>
-      </c>
       <c r="H16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I16" t="s">
         <v>420</v>
       </c>
-      <c r="J16" t="s">
-        <v>421</v>
-      </c>
       <c r="K16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -11948,35 +11729,20 @@
       <c r="B17">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>421</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>421</v>
       </c>
-      <c r="E17" t="s">
-        <v>422</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>421</v>
       </c>
-      <c r="G17" t="s">
-        <v>422</v>
-      </c>
-      <c r="H17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>423</v>
+      </c>
+      <c r="L17" t="s">
         <v>421</v>
-      </c>
-      <c r="J17" t="s">
-        <v>421</v>
-      </c>
-      <c r="K17" t="s">
-        <v>424</v>
-      </c>
-      <c r="L17" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -11986,36 +11752,6 @@
       <c r="B18">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>421</v>
-      </c>
-      <c r="D18" t="s">
-        <v>421</v>
-      </c>
-      <c r="E18" t="s">
-        <v>421</v>
-      </c>
-      <c r="F18" t="s">
-        <v>421</v>
-      </c>
-      <c r="G18" t="s">
-        <v>421</v>
-      </c>
-      <c r="H18" t="s">
-        <v>421</v>
-      </c>
-      <c r="I18" t="s">
-        <v>421</v>
-      </c>
-      <c r="J18" t="s">
-        <v>421</v>
-      </c>
-      <c r="K18" t="s">
-        <v>421</v>
-      </c>
-      <c r="L18" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -12024,18 +11760,6 @@
       <c r="B19">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" t="s">
-        <v>421</v>
-      </c>
-      <c r="E19" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" t="s">
-        <v>421</v>
-      </c>
       <c r="G19" t="s">
         <v>420</v>
       </c>
@@ -12045,11 +11769,8 @@
       <c r="I19" t="s">
         <v>420</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>421</v>
-      </c>
-      <c r="K19" t="s">
-        <v>422</v>
       </c>
       <c r="L19" t="s">
         <v>420</v>
@@ -12062,36 +11783,6 @@
       <c r="B20">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>421</v>
-      </c>
-      <c r="D20" t="s">
-        <v>421</v>
-      </c>
-      <c r="E20" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" t="s">
-        <v>421</v>
-      </c>
-      <c r="I20" t="s">
-        <v>421</v>
-      </c>
-      <c r="J20" t="s">
-        <v>421</v>
-      </c>
-      <c r="K20" t="s">
-        <v>421</v>
-      </c>
-      <c r="L20" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -12100,36 +11791,6 @@
       <c r="B21">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E21" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" t="s">
-        <v>421</v>
-      </c>
-      <c r="G21" t="s">
-        <v>421</v>
-      </c>
-      <c r="H21" t="s">
-        <v>421</v>
-      </c>
-      <c r="I21" t="s">
-        <v>421</v>
-      </c>
-      <c r="J21" t="s">
-        <v>421</v>
-      </c>
-      <c r="K21" t="s">
-        <v>421</v>
-      </c>
-      <c r="L21" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -12138,36 +11799,6 @@
       <c r="B22">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" t="s">
-        <v>421</v>
-      </c>
-      <c r="F22" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" t="s">
-        <v>421</v>
-      </c>
-      <c r="H22" t="s">
-        <v>421</v>
-      </c>
-      <c r="I22" t="s">
-        <v>421</v>
-      </c>
-      <c r="J22" t="s">
-        <v>421</v>
-      </c>
-      <c r="K22" t="s">
-        <v>421</v>
-      </c>
-      <c r="L22" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -12176,36 +11807,6 @@
       <c r="B23">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>421</v>
-      </c>
-      <c r="D23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" t="s">
-        <v>421</v>
-      </c>
-      <c r="G23" t="s">
-        <v>421</v>
-      </c>
-      <c r="H23" t="s">
-        <v>421</v>
-      </c>
-      <c r="I23" t="s">
-        <v>421</v>
-      </c>
-      <c r="J23" t="s">
-        <v>421</v>
-      </c>
-      <c r="K23" t="s">
-        <v>421</v>
-      </c>
-      <c r="L23" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -12217,32 +11818,11 @@
       <c r="C24" t="s">
         <v>420</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>421</v>
       </c>
-      <c r="E24" t="s">
+      <c r="K24" t="s">
         <v>422</v>
-      </c>
-      <c r="F24" t="s">
-        <v>421</v>
-      </c>
-      <c r="G24" t="s">
-        <v>421</v>
-      </c>
-      <c r="H24" t="s">
-        <v>421</v>
-      </c>
-      <c r="I24" t="s">
-        <v>421</v>
-      </c>
-      <c r="J24" t="s">
-        <v>421</v>
-      </c>
-      <c r="K24" t="s">
-        <v>423</v>
-      </c>
-      <c r="L24" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -12255,32 +11835,11 @@
       <c r="C25" t="s">
         <v>420</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>421</v>
       </c>
-      <c r="E25" t="s">
+      <c r="K25" t="s">
         <v>422</v>
-      </c>
-      <c r="F25" t="s">
-        <v>421</v>
-      </c>
-      <c r="G25" t="s">
-        <v>421</v>
-      </c>
-      <c r="H25" t="s">
-        <v>421</v>
-      </c>
-      <c r="I25" t="s">
-        <v>421</v>
-      </c>
-      <c r="J25" t="s">
-        <v>421</v>
-      </c>
-      <c r="K25" t="s">
-        <v>423</v>
-      </c>
-      <c r="L25" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -12290,24 +11849,9 @@
       <c r="B26">
         <v>144</v>
       </c>
-      <c r="C26" t="s">
-        <v>421</v>
-      </c>
-      <c r="D26" t="s">
-        <v>421</v>
-      </c>
-      <c r="E26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F26" t="s">
-        <v>421</v>
-      </c>
       <c r="G26" t="s">
         <v>420</v>
       </c>
-      <c r="H26" t="s">
-        <v>421</v>
-      </c>
       <c r="I26" t="s">
         <v>420</v>
       </c>
@@ -12315,7 +11859,7 @@
         <v>420</v>
       </c>
       <c r="K26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L26" t="s">
         <v>420</v>
@@ -12328,24 +11872,9 @@
       <c r="B27">
         <v>144</v>
       </c>
-      <c r="C27" t="s">
-        <v>421</v>
-      </c>
-      <c r="D27" t="s">
-        <v>421</v>
-      </c>
-      <c r="E27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F27" t="s">
-        <v>421</v>
-      </c>
       <c r="G27" t="s">
         <v>420</v>
       </c>
-      <c r="H27" t="s">
-        <v>421</v>
-      </c>
       <c r="I27" t="s">
         <v>420</v>
       </c>
@@ -12353,7 +11882,7 @@
         <v>420</v>
       </c>
       <c r="K27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L27" t="s">
         <v>420</v>
@@ -12366,29 +11895,11 @@
       <c r="B28">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
-        <v>421</v>
-      </c>
       <c r="D28" t="s">
         <v>420</v>
       </c>
-      <c r="E28" t="s">
-        <v>421</v>
-      </c>
-      <c r="F28" t="s">
-        <v>421</v>
-      </c>
       <c r="G28" t="s">
         <v>420</v>
-      </c>
-      <c r="H28" t="s">
-        <v>421</v>
-      </c>
-      <c r="I28" t="s">
-        <v>421</v>
-      </c>
-      <c r="J28" t="s">
-        <v>421</v>
       </c>
       <c r="K28" t="s">
         <v>420</v>
@@ -12404,29 +11915,11 @@
       <c r="B29">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
-        <v>421</v>
-      </c>
       <c r="D29" t="s">
         <v>420</v>
       </c>
-      <c r="E29" t="s">
-        <v>421</v>
-      </c>
-      <c r="F29" t="s">
-        <v>421</v>
-      </c>
       <c r="G29" t="s">
         <v>420</v>
-      </c>
-      <c r="H29" t="s">
-        <v>421</v>
-      </c>
-      <c r="I29" t="s">
-        <v>421</v>
-      </c>
-      <c r="J29" t="s">
-        <v>421</v>
       </c>
       <c r="K29" t="s">
         <v>420</v>
@@ -12442,35 +11935,17 @@
       <c r="B30">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30" t="s">
         <v>421</v>
       </c>
-      <c r="D30" t="s">
+      <c r="K30" t="s">
+        <v>422</v>
+      </c>
+      <c r="L30" t="s">
         <v>421</v>
-      </c>
-      <c r="E30" t="s">
-        <v>423</v>
-      </c>
-      <c r="F30" t="s">
-        <v>422</v>
-      </c>
-      <c r="G30" t="s">
-        <v>421</v>
-      </c>
-      <c r="H30" t="s">
-        <v>421</v>
-      </c>
-      <c r="I30" t="s">
-        <v>421</v>
-      </c>
-      <c r="J30" t="s">
-        <v>421</v>
-      </c>
-      <c r="K30" t="s">
-        <v>423</v>
-      </c>
-      <c r="L30" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -12480,32 +11955,14 @@
       <c r="B31">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>421</v>
-      </c>
-      <c r="D31" t="s">
-        <v>421</v>
-      </c>
-      <c r="E31" t="s">
-        <v>422</v>
       </c>
       <c r="F31" t="s">
         <v>420</v>
       </c>
-      <c r="G31" t="s">
+      <c r="K31" t="s">
         <v>421</v>
-      </c>
-      <c r="H31" t="s">
-        <v>421</v>
-      </c>
-      <c r="I31" t="s">
-        <v>421</v>
-      </c>
-      <c r="J31" t="s">
-        <v>421</v>
-      </c>
-      <c r="K31" t="s">
-        <v>422</v>
       </c>
       <c r="L31" t="s">
         <v>420</v>
@@ -12518,29 +11975,11 @@
       <c r="B32">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D32" t="s">
-        <v>421</v>
-      </c>
       <c r="E32" t="s">
         <v>420</v>
       </c>
       <c r="F32" t="s">
         <v>420</v>
-      </c>
-      <c r="G32" t="s">
-        <v>421</v>
-      </c>
-      <c r="H32" t="s">
-        <v>421</v>
-      </c>
-      <c r="I32" t="s">
-        <v>421</v>
-      </c>
-      <c r="J32" t="s">
-        <v>421</v>
       </c>
       <c r="K32" t="s">
         <v>420</v>
@@ -12557,34 +11996,28 @@
         <v>399</v>
       </c>
       <c r="C33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" t="s">
+        <v>422</v>
+      </c>
+      <c r="G33" t="s">
         <v>424</v>
       </c>
-      <c r="D33" t="s">
-        <v>422</v>
-      </c>
-      <c r="E33" t="s">
-        <v>424</v>
-      </c>
-      <c r="F33" t="s">
-        <v>423</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>421</v>
+      </c>
+      <c r="K33" t="s">
         <v>425</v>
       </c>
-      <c r="H33" t="s">
-        <v>422</v>
-      </c>
-      <c r="I33" t="s">
-        <v>421</v>
-      </c>
-      <c r="J33" t="s">
-        <v>421</v>
-      </c>
-      <c r="K33" t="s">
-        <v>426</v>
-      </c>
       <c r="L33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -12594,36 +12027,6 @@
       <c r="B34">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D34" t="s">
-        <v>421</v>
-      </c>
-      <c r="E34" t="s">
-        <v>421</v>
-      </c>
-      <c r="F34" t="s">
-        <v>421</v>
-      </c>
-      <c r="G34" t="s">
-        <v>421</v>
-      </c>
-      <c r="H34" t="s">
-        <v>421</v>
-      </c>
-      <c r="I34" t="s">
-        <v>421</v>
-      </c>
-      <c r="J34" t="s">
-        <v>421</v>
-      </c>
-      <c r="K34" t="s">
-        <v>421</v>
-      </c>
-      <c r="L34" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -12633,34 +12036,25 @@
         <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D35" t="s">
         <v>420</v>
       </c>
       <c r="E35" t="s">
+        <v>422</v>
+      </c>
+      <c r="F35" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" t="s">
+        <v>422</v>
+      </c>
+      <c r="K35" t="s">
+        <v>429</v>
+      </c>
+      <c r="L35" t="s">
         <v>423</v>
-      </c>
-      <c r="F35" t="s">
-        <v>423</v>
-      </c>
-      <c r="G35" t="s">
-        <v>423</v>
-      </c>
-      <c r="H35" t="s">
-        <v>421</v>
-      </c>
-      <c r="I35" t="s">
-        <v>421</v>
-      </c>
-      <c r="J35" t="s">
-        <v>421</v>
-      </c>
-      <c r="K35" t="s">
-        <v>430</v>
-      </c>
-      <c r="L35" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12670,35 +12064,11 @@
       <c r="B36">
         <v>27</v>
       </c>
-      <c r="C36" t="s">
-        <v>421</v>
-      </c>
-      <c r="D36" t="s">
-        <v>421</v>
-      </c>
       <c r="E36" t="s">
         <v>420</v>
       </c>
-      <c r="F36" t="s">
-        <v>421</v>
-      </c>
-      <c r="G36" t="s">
-        <v>421</v>
-      </c>
-      <c r="H36" t="s">
-        <v>421</v>
-      </c>
-      <c r="I36" t="s">
-        <v>421</v>
-      </c>
-      <c r="J36" t="s">
-        <v>421</v>
-      </c>
       <c r="K36" t="s">
         <v>420</v>
-      </c>
-      <c r="L36" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12708,29 +12078,11 @@
       <c r="B37">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
-        <v>421</v>
-      </c>
-      <c r="D37" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" t="s">
-        <v>421</v>
-      </c>
-      <c r="F37" t="s">
-        <v>421</v>
-      </c>
       <c r="G37" t="s">
         <v>420</v>
       </c>
       <c r="H37" t="s">
         <v>420</v>
-      </c>
-      <c r="I37" t="s">
-        <v>421</v>
-      </c>
-      <c r="J37" t="s">
-        <v>421</v>
       </c>
       <c r="K37" t="s">
         <v>420</v>
@@ -12746,36 +12098,6 @@
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>421</v>
-      </c>
-      <c r="D38" t="s">
-        <v>421</v>
-      </c>
-      <c r="E38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F38" t="s">
-        <v>421</v>
-      </c>
-      <c r="G38" t="s">
-        <v>421</v>
-      </c>
-      <c r="H38" t="s">
-        <v>421</v>
-      </c>
-      <c r="I38" t="s">
-        <v>421</v>
-      </c>
-      <c r="J38" t="s">
-        <v>421</v>
-      </c>
-      <c r="K38" t="s">
-        <v>421</v>
-      </c>
-      <c r="L38" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -12790,24 +12112,6 @@
       <c r="D39" t="s">
         <v>420</v>
       </c>
-      <c r="E39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F39" t="s">
-        <v>421</v>
-      </c>
-      <c r="G39" t="s">
-        <v>421</v>
-      </c>
-      <c r="H39" t="s">
-        <v>421</v>
-      </c>
-      <c r="I39" t="s">
-        <v>421</v>
-      </c>
-      <c r="J39" t="s">
-        <v>421</v>
-      </c>
       <c r="K39" t="s">
         <v>420</v>
       </c>
@@ -12822,29 +12126,11 @@
       <c r="B40">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
-        <v>421</v>
-      </c>
-      <c r="D40" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" t="s">
-        <v>421</v>
-      </c>
-      <c r="F40" t="s">
-        <v>421</v>
-      </c>
       <c r="G40" t="s">
         <v>420</v>
       </c>
       <c r="H40" t="s">
         <v>420</v>
-      </c>
-      <c r="I40" t="s">
-        <v>421</v>
-      </c>
-      <c r="J40" t="s">
-        <v>421</v>
       </c>
       <c r="K40" t="s">
         <v>420</v>
@@ -12860,36 +12146,6 @@
       <c r="B41">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" t="s">
-        <v>421</v>
-      </c>
-      <c r="E41" t="s">
-        <v>421</v>
-      </c>
-      <c r="F41" t="s">
-        <v>421</v>
-      </c>
-      <c r="G41" t="s">
-        <v>421</v>
-      </c>
-      <c r="H41" t="s">
-        <v>421</v>
-      </c>
-      <c r="I41" t="s">
-        <v>421</v>
-      </c>
-      <c r="J41" t="s">
-        <v>421</v>
-      </c>
-      <c r="K41" t="s">
-        <v>421</v>
-      </c>
-      <c r="L41" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -12899,34 +12155,28 @@
         <v>415</v>
       </c>
       <c r="C42" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" t="s">
         <v>430</v>
       </c>
-      <c r="D42" t="s">
-        <v>429</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>423</v>
+      </c>
+      <c r="G42" t="s">
         <v>431</v>
       </c>
-      <c r="F42" t="s">
-        <v>424</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>423</v>
+      </c>
+      <c r="K42" t="s">
         <v>432</v>
       </c>
-      <c r="H42" t="s">
-        <v>424</v>
-      </c>
-      <c r="I42" t="s">
-        <v>421</v>
-      </c>
-      <c r="J42" t="s">
-        <v>421</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>433</v>
-      </c>
-      <c r="L42" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12936,36 +12186,6 @@
       <c r="B43">
         <v>36</v>
       </c>
-      <c r="C43" t="s">
-        <v>421</v>
-      </c>
-      <c r="D43" t="s">
-        <v>421</v>
-      </c>
-      <c r="E43" t="s">
-        <v>421</v>
-      </c>
-      <c r="F43" t="s">
-        <v>421</v>
-      </c>
-      <c r="G43" t="s">
-        <v>421</v>
-      </c>
-      <c r="H43" t="s">
-        <v>421</v>
-      </c>
-      <c r="I43" t="s">
-        <v>421</v>
-      </c>
-      <c r="J43" t="s">
-        <v>421</v>
-      </c>
-      <c r="K43" t="s">
-        <v>421</v>
-      </c>
-      <c r="L43" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12975,34 +12195,25 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" t="s">
         <v>424</v>
-      </c>
-      <c r="D44" t="s">
-        <v>423</v>
-      </c>
-      <c r="E44" t="s">
-        <v>425</v>
       </c>
       <c r="F44" t="s">
         <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>422</v>
-      </c>
-      <c r="H44" t="s">
         <v>421</v>
       </c>
-      <c r="I44" t="s">
-        <v>421</v>
-      </c>
-      <c r="J44" t="s">
-        <v>421</v>
-      </c>
       <c r="K44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -13012,35 +12223,11 @@
       <c r="B45">
         <v>29</v>
       </c>
-      <c r="C45" t="s">
-        <v>421</v>
-      </c>
-      <c r="D45" t="s">
-        <v>421</v>
-      </c>
-      <c r="E45" t="s">
-        <v>421</v>
-      </c>
-      <c r="F45" t="s">
-        <v>421</v>
-      </c>
       <c r="G45" t="s">
         <v>420</v>
       </c>
-      <c r="H45" t="s">
-        <v>421</v>
-      </c>
-      <c r="I45" t="s">
-        <v>421</v>
-      </c>
-      <c r="J45" t="s">
-        <v>421</v>
-      </c>
       <c r="K45" t="s">
         <v>420</v>
-      </c>
-      <c r="L45" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -13051,34 +12238,28 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H46" t="s">
-        <v>422</v>
-      </c>
-      <c r="I46" t="s">
         <v>421</v>
       </c>
-      <c r="J46" t="s">
-        <v>421</v>
-      </c>
       <c r="K46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -13095,10 +12276,7 @@
         <v>420</v>
       </c>
       <c r="E47" t="s">
-        <v>425</v>
-      </c>
-      <c r="F47" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
         <v>420</v>
@@ -13106,17 +12284,11 @@
       <c r="H47" t="s">
         <v>420</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
+        <v>428</v>
+      </c>
+      <c r="L47" t="s">
         <v>421</v>
-      </c>
-      <c r="J47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K47" t="s">
-        <v>429</v>
-      </c>
-      <c r="L47" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -13126,35 +12298,11 @@
       <c r="B48">
         <v>68</v>
       </c>
-      <c r="C48" t="s">
-        <v>421</v>
-      </c>
-      <c r="D48" t="s">
-        <v>421</v>
-      </c>
-      <c r="E48" t="s">
-        <v>421</v>
-      </c>
-      <c r="F48" t="s">
-        <v>421</v>
-      </c>
       <c r="G48" t="s">
         <v>420</v>
       </c>
-      <c r="H48" t="s">
-        <v>421</v>
-      </c>
-      <c r="I48" t="s">
-        <v>421</v>
-      </c>
-      <c r="J48" t="s">
-        <v>421</v>
-      </c>
       <c r="K48" t="s">
         <v>420</v>
-      </c>
-      <c r="L48" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -13164,35 +12312,20 @@
       <c r="B49">
         <v>51</v>
       </c>
-      <c r="C49" t="s">
-        <v>421</v>
-      </c>
       <c r="D49" t="s">
         <v>420</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>421</v>
-      </c>
-      <c r="F49" t="s">
-        <v>421</v>
-      </c>
-      <c r="G49" t="s">
-        <v>422</v>
       </c>
       <c r="H49" t="s">
         <v>420</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>421</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>421</v>
-      </c>
-      <c r="K49" t="s">
-        <v>422</v>
-      </c>
-      <c r="L49" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -13202,14 +12335,8 @@
       <c r="B50">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
-        <v>421</v>
-      </c>
-      <c r="D50" t="s">
-        <v>421</v>
-      </c>
       <c r="E50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F50" t="s">
         <v>420</v>
@@ -13217,17 +12344,8 @@
       <c r="G50" t="s">
         <v>420</v>
       </c>
-      <c r="H50" t="s">
-        <v>421</v>
-      </c>
-      <c r="I50" t="s">
-        <v>421</v>
-      </c>
-      <c r="J50" t="s">
-        <v>421</v>
-      </c>
       <c r="K50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s">
         <v>420</v>
@@ -13240,36 +12358,6 @@
       <c r="B51">
         <v>19</v>
       </c>
-      <c r="C51" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" t="s">
-        <v>421</v>
-      </c>
-      <c r="E51" t="s">
-        <v>421</v>
-      </c>
-      <c r="F51" t="s">
-        <v>421</v>
-      </c>
-      <c r="G51" t="s">
-        <v>421</v>
-      </c>
-      <c r="H51" t="s">
-        <v>421</v>
-      </c>
-      <c r="I51" t="s">
-        <v>421</v>
-      </c>
-      <c r="J51" t="s">
-        <v>421</v>
-      </c>
-      <c r="K51" t="s">
-        <v>421</v>
-      </c>
-      <c r="L51" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -13284,29 +12372,17 @@
       <c r="D52" t="s">
         <v>420</v>
       </c>
-      <c r="E52" t="s">
-        <v>421</v>
-      </c>
-      <c r="F52" t="s">
-        <v>421</v>
-      </c>
       <c r="G52" t="s">
         <v>420</v>
       </c>
       <c r="H52" t="s">
         <v>420</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>421</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>421</v>
-      </c>
-      <c r="K52" t="s">
-        <v>422</v>
-      </c>
-      <c r="L52" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -13322,29 +12398,17 @@
       <c r="D53" t="s">
         <v>420</v>
       </c>
-      <c r="E53" t="s">
-        <v>421</v>
-      </c>
-      <c r="F53" t="s">
-        <v>421</v>
-      </c>
       <c r="G53" t="s">
         <v>420</v>
       </c>
       <c r="H53" t="s">
         <v>420</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>421</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>421</v>
-      </c>
-      <c r="K53" t="s">
-        <v>422</v>
-      </c>
-      <c r="L53" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -13355,7 +12419,7 @@
         <v>311</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
         <v>420</v>
@@ -13363,23 +12427,14 @@
       <c r="E54" t="s">
         <v>420</v>
       </c>
-      <c r="F54" t="s">
-        <v>421</v>
-      </c>
       <c r="G54" t="s">
-        <v>428</v>
-      </c>
-      <c r="H54" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I54" t="s">
         <v>420</v>
       </c>
-      <c r="J54" t="s">
-        <v>421</v>
-      </c>
       <c r="K54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s">
         <v>420</v>
@@ -13392,36 +12447,6 @@
       <c r="B55">
         <v>33</v>
       </c>
-      <c r="C55" t="s">
-        <v>421</v>
-      </c>
-      <c r="D55" t="s">
-        <v>421</v>
-      </c>
-      <c r="E55" t="s">
-        <v>421</v>
-      </c>
-      <c r="F55" t="s">
-        <v>421</v>
-      </c>
-      <c r="G55" t="s">
-        <v>421</v>
-      </c>
-      <c r="H55" t="s">
-        <v>421</v>
-      </c>
-      <c r="I55" t="s">
-        <v>421</v>
-      </c>
-      <c r="J55" t="s">
-        <v>421</v>
-      </c>
-      <c r="K55" t="s">
-        <v>421</v>
-      </c>
-      <c r="L55" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -13433,31 +12458,10 @@
       <c r="C56" t="s">
         <v>420</v>
       </c>
-      <c r="D56" t="s">
-        <v>421</v>
-      </c>
-      <c r="E56" t="s">
-        <v>421</v>
-      </c>
-      <c r="F56" t="s">
-        <v>421</v>
-      </c>
       <c r="G56" t="s">
         <v>420</v>
       </c>
-      <c r="H56" t="s">
-        <v>421</v>
-      </c>
-      <c r="I56" t="s">
-        <v>421</v>
-      </c>
-      <c r="J56" t="s">
-        <v>421</v>
-      </c>
       <c r="K56" t="s">
-        <v>422</v>
-      </c>
-      <c r="L56" t="s">
         <v>421</v>
       </c>
     </row>
@@ -13468,34 +12472,10 @@
       <c r="B57">
         <v>21</v>
       </c>
-      <c r="C57" t="s">
+      <c r="G57" t="s">
         <v>421</v>
       </c>
-      <c r="D57" t="s">
-        <v>421</v>
-      </c>
-      <c r="E57" t="s">
-        <v>421</v>
-      </c>
-      <c r="F57" t="s">
-        <v>421</v>
-      </c>
-      <c r="G57" t="s">
-        <v>422</v>
-      </c>
-      <c r="H57" t="s">
-        <v>421</v>
-      </c>
-      <c r="I57" t="s">
-        <v>421</v>
-      </c>
-      <c r="J57" t="s">
-        <v>421</v>
-      </c>
       <c r="K57" t="s">
-        <v>422</v>
-      </c>
-      <c r="L57" t="s">
         <v>421</v>
       </c>
     </row>
@@ -13506,35 +12486,11 @@
       <c r="B58">
         <v>30</v>
       </c>
-      <c r="C58" t="s">
-        <v>421</v>
-      </c>
-      <c r="D58" t="s">
-        <v>421</v>
-      </c>
-      <c r="E58" t="s">
-        <v>421</v>
-      </c>
-      <c r="F58" t="s">
-        <v>421</v>
-      </c>
-      <c r="G58" t="s">
-        <v>421</v>
-      </c>
-      <c r="H58" t="s">
-        <v>421</v>
-      </c>
       <c r="I58" t="s">
         <v>420</v>
       </c>
-      <c r="J58" t="s">
-        <v>421</v>
-      </c>
       <c r="K58" t="s">
         <v>420</v>
-      </c>
-      <c r="L58" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -13544,35 +12500,11 @@
       <c r="B59">
         <v>80</v>
       </c>
-      <c r="C59" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" t="s">
-        <v>421</v>
-      </c>
       <c r="E59" t="s">
         <v>420</v>
       </c>
-      <c r="F59" t="s">
-        <v>421</v>
-      </c>
-      <c r="G59" t="s">
-        <v>421</v>
-      </c>
-      <c r="H59" t="s">
-        <v>421</v>
-      </c>
-      <c r="I59" t="s">
-        <v>421</v>
-      </c>
-      <c r="J59" t="s">
-        <v>421</v>
-      </c>
       <c r="K59" t="s">
         <v>420</v>
-      </c>
-      <c r="L59" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13585,32 +12517,8 @@
       <c r="C60" t="s">
         <v>420</v>
       </c>
-      <c r="D60" t="s">
-        <v>421</v>
-      </c>
-      <c r="E60" t="s">
-        <v>421</v>
-      </c>
-      <c r="F60" t="s">
-        <v>421</v>
-      </c>
-      <c r="G60" t="s">
-        <v>421</v>
-      </c>
-      <c r="H60" t="s">
-        <v>421</v>
-      </c>
-      <c r="I60" t="s">
-        <v>421</v>
-      </c>
-      <c r="J60" t="s">
-        <v>421</v>
-      </c>
       <c r="K60" t="s">
         <v>420</v>
-      </c>
-      <c r="L60" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -13623,32 +12531,11 @@
       <c r="C61" t="s">
         <v>420</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>421</v>
       </c>
-      <c r="E61" t="s">
-        <v>421</v>
-      </c>
-      <c r="F61" t="s">
-        <v>421</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="K61" t="s">
         <v>422</v>
-      </c>
-      <c r="H61" t="s">
-        <v>421</v>
-      </c>
-      <c r="I61" t="s">
-        <v>421</v>
-      </c>
-      <c r="J61" t="s">
-        <v>421</v>
-      </c>
-      <c r="K61" t="s">
-        <v>423</v>
-      </c>
-      <c r="L61" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -13659,31 +12546,16 @@
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D62" t="s">
         <v>420</v>
       </c>
-      <c r="E62" t="s">
-        <v>421</v>
-      </c>
-      <c r="F62" t="s">
-        <v>421</v>
-      </c>
       <c r="G62" t="s">
         <v>420</v>
       </c>
-      <c r="H62" t="s">
-        <v>421</v>
-      </c>
-      <c r="I62" t="s">
-        <v>421</v>
-      </c>
-      <c r="J62" t="s">
-        <v>421</v>
-      </c>
       <c r="K62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s">
         <v>420</v>
@@ -13696,36 +12568,6 @@
       <c r="B63">
         <v>19</v>
       </c>
-      <c r="C63" t="s">
-        <v>421</v>
-      </c>
-      <c r="D63" t="s">
-        <v>421</v>
-      </c>
-      <c r="E63" t="s">
-        <v>421</v>
-      </c>
-      <c r="F63" t="s">
-        <v>421</v>
-      </c>
-      <c r="G63" t="s">
-        <v>421</v>
-      </c>
-      <c r="H63" t="s">
-        <v>421</v>
-      </c>
-      <c r="I63" t="s">
-        <v>421</v>
-      </c>
-      <c r="J63" t="s">
-        <v>421</v>
-      </c>
-      <c r="K63" t="s">
-        <v>421</v>
-      </c>
-      <c r="L63" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -13735,34 +12577,22 @@
         <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D64" t="s">
         <v>420</v>
       </c>
       <c r="E64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F64" t="s">
         <v>420</v>
       </c>
-      <c r="G64" t="s">
+      <c r="K64" t="s">
+        <v>424</v>
+      </c>
+      <c r="L64" t="s">
         <v>421</v>
-      </c>
-      <c r="H64" t="s">
-        <v>421</v>
-      </c>
-      <c r="I64" t="s">
-        <v>421</v>
-      </c>
-      <c r="J64" t="s">
-        <v>421</v>
-      </c>
-      <c r="K64" t="s">
-        <v>425</v>
-      </c>
-      <c r="L64" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -13772,36 +12602,6 @@
       <c r="B65">
         <v>73</v>
       </c>
-      <c r="C65" t="s">
-        <v>421</v>
-      </c>
-      <c r="D65" t="s">
-        <v>421</v>
-      </c>
-      <c r="E65" t="s">
-        <v>421</v>
-      </c>
-      <c r="F65" t="s">
-        <v>421</v>
-      </c>
-      <c r="G65" t="s">
-        <v>421</v>
-      </c>
-      <c r="H65" t="s">
-        <v>421</v>
-      </c>
-      <c r="I65" t="s">
-        <v>421</v>
-      </c>
-      <c r="J65" t="s">
-        <v>421</v>
-      </c>
-      <c r="K65" t="s">
-        <v>421</v>
-      </c>
-      <c r="L65" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -13810,29 +12610,11 @@
       <c r="B66">
         <v>44</v>
       </c>
-      <c r="C66" t="s">
-        <v>421</v>
-      </c>
-      <c r="D66" t="s">
-        <v>421</v>
-      </c>
       <c r="E66" t="s">
         <v>420</v>
       </c>
       <c r="F66" t="s">
         <v>420</v>
-      </c>
-      <c r="G66" t="s">
-        <v>421</v>
-      </c>
-      <c r="H66" t="s">
-        <v>421</v>
-      </c>
-      <c r="I66" t="s">
-        <v>421</v>
-      </c>
-      <c r="J66" t="s">
-        <v>421</v>
       </c>
       <c r="K66" t="s">
         <v>420</v>
@@ -13849,7 +12631,7 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D67" t="s">
         <v>420</v>
@@ -13857,23 +12639,8 @@
       <c r="E67" t="s">
         <v>420</v>
       </c>
-      <c r="F67" t="s">
-        <v>421</v>
-      </c>
-      <c r="G67" t="s">
-        <v>421</v>
-      </c>
-      <c r="H67" t="s">
-        <v>421</v>
-      </c>
-      <c r="I67" t="s">
-        <v>421</v>
-      </c>
-      <c r="J67" t="s">
-        <v>421</v>
-      </c>
       <c r="K67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s">
         <v>420</v>
@@ -13886,12 +12653,6 @@
       <c r="B68">
         <v>84</v>
       </c>
-      <c r="C68" t="s">
-        <v>421</v>
-      </c>
-      <c r="D68" t="s">
-        <v>421</v>
-      </c>
       <c r="E68" t="s">
         <v>420</v>
       </c>
@@ -13902,19 +12663,13 @@
         <v>420</v>
       </c>
       <c r="H68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" t="s">
+        <v>421</v>
+      </c>
+      <c r="L68" t="s">
         <v>422</v>
-      </c>
-      <c r="I68" t="s">
-        <v>421</v>
-      </c>
-      <c r="J68" t="s">
-        <v>421</v>
-      </c>
-      <c r="K68" t="s">
-        <v>422</v>
-      </c>
-      <c r="L68" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -13924,36 +12679,6 @@
       <c r="B69">
         <v>12</v>
       </c>
-      <c r="C69" t="s">
-        <v>421</v>
-      </c>
-      <c r="D69" t="s">
-        <v>421</v>
-      </c>
-      <c r="E69" t="s">
-        <v>421</v>
-      </c>
-      <c r="F69" t="s">
-        <v>421</v>
-      </c>
-      <c r="G69" t="s">
-        <v>421</v>
-      </c>
-      <c r="H69" t="s">
-        <v>421</v>
-      </c>
-      <c r="I69" t="s">
-        <v>421</v>
-      </c>
-      <c r="J69" t="s">
-        <v>421</v>
-      </c>
-      <c r="K69" t="s">
-        <v>421</v>
-      </c>
-      <c r="L69" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -13962,12 +12687,6 @@
       <c r="B70">
         <v>72</v>
       </c>
-      <c r="C70" t="s">
-        <v>421</v>
-      </c>
-      <c r="D70" t="s">
-        <v>421</v>
-      </c>
       <c r="E70" t="s">
         <v>420</v>
       </c>
@@ -13978,19 +12697,13 @@
         <v>420</v>
       </c>
       <c r="H70" t="s">
+        <v>421</v>
+      </c>
+      <c r="K70" t="s">
+        <v>421</v>
+      </c>
+      <c r="L70" t="s">
         <v>422</v>
-      </c>
-      <c r="I70" t="s">
-        <v>421</v>
-      </c>
-      <c r="J70" t="s">
-        <v>421</v>
-      </c>
-      <c r="K70" t="s">
-        <v>422</v>
-      </c>
-      <c r="L70" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -14004,31 +12717,28 @@
         <v>420</v>
       </c>
       <c r="D71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" t="s">
+        <v>428</v>
+      </c>
+      <c r="F71" t="s">
+        <v>424</v>
+      </c>
+      <c r="G71" t="s">
+        <v>421</v>
+      </c>
+      <c r="H71" t="s">
         <v>422</v>
-      </c>
-      <c r="E71" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" t="s">
-        <v>425</v>
-      </c>
-      <c r="G71" t="s">
-        <v>422</v>
-      </c>
-      <c r="H71" t="s">
-        <v>423</v>
       </c>
       <c r="I71" t="s">
         <v>420</v>
       </c>
-      <c r="J71" t="s">
-        <v>421</v>
-      </c>
       <c r="K71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -14038,35 +12748,23 @@
       <c r="B72">
         <v>67</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
+        <v>427</v>
+      </c>
+      <c r="F72" t="s">
+        <v>422</v>
+      </c>
+      <c r="G72" t="s">
         <v>421</v>
       </c>
-      <c r="D72" t="s">
+      <c r="H72" t="s">
         <v>421</v>
       </c>
-      <c r="E72" t="s">
-        <v>428</v>
-      </c>
-      <c r="F72" t="s">
-        <v>423</v>
-      </c>
-      <c r="G72" t="s">
-        <v>422</v>
-      </c>
-      <c r="H72" t="s">
-        <v>422</v>
-      </c>
-      <c r="I72" t="s">
-        <v>421</v>
-      </c>
-      <c r="J72" t="s">
-        <v>421</v>
-      </c>
       <c r="K72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -14080,15 +12778,12 @@
         <v>420</v>
       </c>
       <c r="D73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E73" t="s">
         <v>420</v>
       </c>
       <c r="F73" t="s">
-        <v>422</v>
-      </c>
-      <c r="G73" t="s">
         <v>421</v>
       </c>
       <c r="H73" t="s">
@@ -14097,14 +12792,11 @@
       <c r="I73" t="s">
         <v>420</v>
       </c>
-      <c r="J73" t="s">
-        <v>421</v>
-      </c>
       <c r="K73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L73" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -14115,23 +12807,17 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F74" t="s">
         <v>420</v>
       </c>
-      <c r="G74" t="s">
-        <v>421</v>
-      </c>
-      <c r="H74" t="s">
-        <v>421</v>
-      </c>
       <c r="I74" t="s">
         <v>420</v>
       </c>
@@ -14139,10 +12825,10 @@
         <v>420</v>
       </c>
       <c r="K74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L74" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -14153,23 +12839,17 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F75" t="s">
         <v>420</v>
       </c>
-      <c r="G75" t="s">
-        <v>421</v>
-      </c>
-      <c r="H75" t="s">
-        <v>421</v>
-      </c>
       <c r="I75" t="s">
         <v>420</v>
       </c>
@@ -14177,10 +12857,10 @@
         <v>420</v>
       </c>
       <c r="K75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -14190,35 +12870,23 @@
       <c r="B76">
         <v>111</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
+        <v>423</v>
+      </c>
+      <c r="F76" t="s">
         <v>421</v>
       </c>
-      <c r="D76" t="s">
-        <v>421</v>
-      </c>
-      <c r="E76" t="s">
-        <v>424</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>422</v>
-      </c>
-      <c r="G76" t="s">
-        <v>423</v>
       </c>
       <c r="H76" t="s">
         <v>420</v>
       </c>
-      <c r="I76" t="s">
-        <v>421</v>
-      </c>
-      <c r="J76" t="s">
-        <v>421</v>
-      </c>
       <c r="K76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -14228,34 +12896,13 @@
       <c r="B77">
         <v>43</v>
       </c>
-      <c r="C77" t="s">
-        <v>421</v>
-      </c>
-      <c r="D77" t="s">
-        <v>421</v>
-      </c>
       <c r="E77" t="s">
         <v>420</v>
       </c>
-      <c r="F77" t="s">
-        <v>421</v>
-      </c>
       <c r="G77" t="s">
         <v>420</v>
       </c>
-      <c r="H77" t="s">
-        <v>421</v>
-      </c>
-      <c r="I77" t="s">
-        <v>421</v>
-      </c>
-      <c r="J77" t="s">
-        <v>421</v>
-      </c>
       <c r="K77" t="s">
-        <v>422</v>
-      </c>
-      <c r="L77" t="s">
         <v>421</v>
       </c>
     </row>
@@ -14266,35 +12913,23 @@
       <c r="B78">
         <v>68</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
+        <v>422</v>
+      </c>
+      <c r="F78" t="s">
         <v>421</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>421</v>
-      </c>
-      <c r="E78" t="s">
-        <v>423</v>
-      </c>
-      <c r="F78" t="s">
-        <v>422</v>
-      </c>
-      <c r="G78" t="s">
-        <v>422</v>
       </c>
       <c r="H78" t="s">
         <v>420</v>
       </c>
-      <c r="I78" t="s">
-        <v>421</v>
-      </c>
-      <c r="J78" t="s">
-        <v>421</v>
-      </c>
       <c r="K78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -14311,28 +12946,22 @@
         <v>420</v>
       </c>
       <c r="E79" t="s">
+        <v>421</v>
+      </c>
+      <c r="G79" t="s">
+        <v>424</v>
+      </c>
+      <c r="H79" t="s">
         <v>422</v>
-      </c>
-      <c r="F79" t="s">
-        <v>421</v>
-      </c>
-      <c r="G79" t="s">
-        <v>425</v>
-      </c>
-      <c r="H79" t="s">
-        <v>423</v>
       </c>
       <c r="I79" t="s">
         <v>420</v>
       </c>
-      <c r="J79" t="s">
-        <v>421</v>
-      </c>
       <c r="K79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -14342,35 +12971,20 @@
       <c r="B80">
         <v>37</v>
       </c>
-      <c r="C80" t="s">
-        <v>421</v>
-      </c>
-      <c r="D80" t="s">
-        <v>421</v>
-      </c>
       <c r="E80" t="s">
         <v>420</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>421</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
+        <v>421</v>
+      </c>
+      <c r="K80" t="s">
         <v>422</v>
       </c>
-      <c r="H80" t="s">
-        <v>422</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="L80" t="s">
         <v>421</v>
-      </c>
-      <c r="J80" t="s">
-        <v>421</v>
-      </c>
-      <c r="K80" t="s">
-        <v>423</v>
-      </c>
-      <c r="L80" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -14380,32 +12994,17 @@
       <c r="B81">
         <v>116</v>
       </c>
-      <c r="C81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D81" t="s">
-        <v>421</v>
-      </c>
       <c r="E81" t="s">
         <v>420</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>421</v>
-      </c>
-      <c r="G81" t="s">
-        <v>422</v>
       </c>
       <c r="H81" t="s">
         <v>420</v>
       </c>
-      <c r="I81" t="s">
-        <v>421</v>
-      </c>
-      <c r="J81" t="s">
-        <v>421</v>
-      </c>
       <c r="K81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L81" t="s">
         <v>420</v>
@@ -14424,26 +13023,11 @@
       <c r="D82" t="s">
         <v>420</v>
       </c>
-      <c r="E82" t="s">
-        <v>421</v>
-      </c>
-      <c r="F82" t="s">
-        <v>421</v>
-      </c>
       <c r="G82" t="s">
         <v>420</v>
       </c>
-      <c r="H82" t="s">
+      <c r="K82" t="s">
         <v>421</v>
-      </c>
-      <c r="I82" t="s">
-        <v>421</v>
-      </c>
-      <c r="J82" t="s">
-        <v>421</v>
-      </c>
-      <c r="K82" t="s">
-        <v>422</v>
       </c>
       <c r="L82" t="s">
         <v>420</v>
@@ -14456,35 +13040,11 @@
       <c r="B83">
         <v>12</v>
       </c>
-      <c r="C83" t="s">
-        <v>421</v>
-      </c>
-      <c r="D83" t="s">
-        <v>421</v>
-      </c>
-      <c r="E83" t="s">
-        <v>421</v>
-      </c>
-      <c r="F83" t="s">
-        <v>421</v>
-      </c>
-      <c r="G83" t="s">
-        <v>421</v>
-      </c>
-      <c r="H83" t="s">
-        <v>421</v>
-      </c>
       <c r="I83" t="s">
         <v>420</v>
       </c>
-      <c r="J83" t="s">
-        <v>421</v>
-      </c>
       <c r="K83" t="s">
         <v>420</v>
-      </c>
-      <c r="L83" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -14494,36 +13054,6 @@
       <c r="B84">
         <v>48</v>
       </c>
-      <c r="C84" t="s">
-        <v>421</v>
-      </c>
-      <c r="D84" t="s">
-        <v>421</v>
-      </c>
-      <c r="E84" t="s">
-        <v>421</v>
-      </c>
-      <c r="F84" t="s">
-        <v>421</v>
-      </c>
-      <c r="G84" t="s">
-        <v>421</v>
-      </c>
-      <c r="H84" t="s">
-        <v>421</v>
-      </c>
-      <c r="I84" t="s">
-        <v>421</v>
-      </c>
-      <c r="J84" t="s">
-        <v>421</v>
-      </c>
-      <c r="K84" t="s">
-        <v>421</v>
-      </c>
-      <c r="L84" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -14533,23 +13063,14 @@
         <v>265</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E85" t="s">
         <v>420</v>
       </c>
-      <c r="F85" t="s">
-        <v>421</v>
-      </c>
-      <c r="G85" t="s">
-        <v>421</v>
-      </c>
-      <c r="H85" t="s">
-        <v>421</v>
-      </c>
       <c r="I85" t="s">
         <v>420</v>
       </c>
@@ -14557,10 +13078,10 @@
         <v>420</v>
       </c>
       <c r="K85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -14570,24 +13091,9 @@
       <c r="B86">
         <v>102</v>
       </c>
-      <c r="C86" t="s">
-        <v>421</v>
-      </c>
-      <c r="D86" t="s">
-        <v>421</v>
-      </c>
       <c r="E86" t="s">
         <v>420</v>
       </c>
-      <c r="F86" t="s">
-        <v>421</v>
-      </c>
-      <c r="G86" t="s">
-        <v>421</v>
-      </c>
-      <c r="H86" t="s">
-        <v>421</v>
-      </c>
       <c r="I86" t="s">
         <v>420</v>
       </c>
@@ -14595,7 +13101,7 @@
         <v>420</v>
       </c>
       <c r="K86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L86" t="s">
         <v>420</v>
@@ -14609,34 +13115,16 @@
         <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D87" t="s">
-        <v>422</v>
-      </c>
-      <c r="E87" t="s">
         <v>421</v>
       </c>
-      <c r="F87" t="s">
+      <c r="K87" t="s">
+        <v>423</v>
+      </c>
+      <c r="L87" t="s">
         <v>421</v>
-      </c>
-      <c r="G87" t="s">
-        <v>421</v>
-      </c>
-      <c r="H87" t="s">
-        <v>421</v>
-      </c>
-      <c r="I87" t="s">
-        <v>421</v>
-      </c>
-      <c r="J87" t="s">
-        <v>421</v>
-      </c>
-      <c r="K87" t="s">
-        <v>424</v>
-      </c>
-      <c r="L87" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -14653,10 +13141,10 @@
         <v>420</v>
       </c>
       <c r="E88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G88" t="s">
         <v>420</v>
@@ -14668,13 +13156,13 @@
         <v>420</v>
       </c>
       <c r="J88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K88" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L88" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -14690,21 +13178,6 @@
       <c r="D89" t="s">
         <v>420</v>
       </c>
-      <c r="E89" t="s">
-        <v>421</v>
-      </c>
-      <c r="F89" t="s">
-        <v>421</v>
-      </c>
-      <c r="G89" t="s">
-        <v>421</v>
-      </c>
-      <c r="H89" t="s">
-        <v>421</v>
-      </c>
-      <c r="I89" t="s">
-        <v>421</v>
-      </c>
       <c r="J89" t="s">
         <v>420</v>
       </c>
@@ -14712,7 +13185,7 @@
         <v>420</v>
       </c>
       <c r="L89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -14722,12 +13195,6 @@
       <c r="B90">
         <v>75</v>
       </c>
-      <c r="C90" t="s">
-        <v>421</v>
-      </c>
-      <c r="D90" t="s">
-        <v>421</v>
-      </c>
       <c r="E90" t="s">
         <v>420</v>
       </c>
@@ -14740,17 +13207,11 @@
       <c r="H90" t="s">
         <v>420</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>421</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>421</v>
-      </c>
-      <c r="K90" t="s">
-        <v>422</v>
-      </c>
-      <c r="L90" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -14760,29 +13221,11 @@
       <c r="B91">
         <v>46</v>
       </c>
-      <c r="C91" t="s">
-        <v>421</v>
-      </c>
-      <c r="D91" t="s">
-        <v>421</v>
-      </c>
       <c r="E91" t="s">
         <v>420</v>
       </c>
       <c r="F91" t="s">
         <v>420</v>
-      </c>
-      <c r="G91" t="s">
-        <v>421</v>
-      </c>
-      <c r="H91" t="s">
-        <v>421</v>
-      </c>
-      <c r="I91" t="s">
-        <v>421</v>
-      </c>
-      <c r="J91" t="s">
-        <v>421</v>
       </c>
       <c r="K91" t="s">
         <v>420</v>
@@ -14798,24 +13241,6 @@
       <c r="B92">
         <v>47</v>
       </c>
-      <c r="C92" t="s">
-        <v>421</v>
-      </c>
-      <c r="D92" t="s">
-        <v>421</v>
-      </c>
-      <c r="E92" t="s">
-        <v>421</v>
-      </c>
-      <c r="F92" t="s">
-        <v>421</v>
-      </c>
-      <c r="G92" t="s">
-        <v>421</v>
-      </c>
-      <c r="H92" t="s">
-        <v>421</v>
-      </c>
       <c r="I92" t="s">
         <v>420</v>
       </c>
@@ -14837,9 +13262,6 @@
         <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>422</v>
-      </c>
-      <c r="D93" t="s">
         <v>421</v>
       </c>
       <c r="E93" t="s">
@@ -14848,20 +13270,8 @@
       <c r="F93" t="s">
         <v>420</v>
       </c>
-      <c r="G93" t="s">
-        <v>421</v>
-      </c>
-      <c r="H93" t="s">
-        <v>421</v>
-      </c>
-      <c r="I93" t="s">
-        <v>421</v>
-      </c>
-      <c r="J93" t="s">
-        <v>421</v>
-      </c>
       <c r="K93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L93" t="s">
         <v>420</v>
@@ -14875,9 +13285,6 @@
         <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>422</v>
-      </c>
-      <c r="D94" t="s">
         <v>421</v>
       </c>
       <c r="E94" t="s">
@@ -14886,20 +13293,8 @@
       <c r="F94" t="s">
         <v>420</v>
       </c>
-      <c r="G94" t="s">
-        <v>421</v>
-      </c>
-      <c r="H94" t="s">
-        <v>421</v>
-      </c>
-      <c r="I94" t="s">
-        <v>421</v>
-      </c>
-      <c r="J94" t="s">
-        <v>421</v>
-      </c>
       <c r="K94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L94" t="s">
         <v>420</v>
@@ -14913,34 +13308,25 @@
         <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>422</v>
-      </c>
-      <c r="D95" t="s">
         <v>421</v>
       </c>
       <c r="E95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F95" t="s">
         <v>420</v>
       </c>
       <c r="G95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H95" t="s">
+        <v>422</v>
+      </c>
+      <c r="K95" t="s">
+        <v>426</v>
+      </c>
+      <c r="L95" t="s">
         <v>423</v>
-      </c>
-      <c r="I95" t="s">
-        <v>421</v>
-      </c>
-      <c r="J95" t="s">
-        <v>421</v>
-      </c>
-      <c r="K95" t="s">
-        <v>427</v>
-      </c>
-      <c r="L95" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -14950,36 +13336,6 @@
       <c r="B96">
         <v>41</v>
       </c>
-      <c r="C96" t="s">
-        <v>421</v>
-      </c>
-      <c r="D96" t="s">
-        <v>421</v>
-      </c>
-      <c r="E96" t="s">
-        <v>421</v>
-      </c>
-      <c r="F96" t="s">
-        <v>421</v>
-      </c>
-      <c r="G96" t="s">
-        <v>421</v>
-      </c>
-      <c r="H96" t="s">
-        <v>421</v>
-      </c>
-      <c r="I96" t="s">
-        <v>421</v>
-      </c>
-      <c r="J96" t="s">
-        <v>421</v>
-      </c>
-      <c r="K96" t="s">
-        <v>421</v>
-      </c>
-      <c r="L96" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -14989,9 +13345,6 @@
         <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>422</v>
-      </c>
-      <c r="D97" t="s">
         <v>421</v>
       </c>
       <c r="E97" t="s">
@@ -15001,22 +13354,16 @@
         <v>420</v>
       </c>
       <c r="G97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H97" t="s">
+        <v>422</v>
+      </c>
+      <c r="K97" t="s">
+        <v>428</v>
+      </c>
+      <c r="L97" t="s">
         <v>423</v>
-      </c>
-      <c r="I97" t="s">
-        <v>421</v>
-      </c>
-      <c r="J97" t="s">
-        <v>421</v>
-      </c>
-      <c r="K97" t="s">
-        <v>429</v>
-      </c>
-      <c r="L97" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -15026,35 +13373,11 @@
       <c r="B98">
         <v>19</v>
       </c>
-      <c r="C98" t="s">
-        <v>421</v>
-      </c>
-      <c r="D98" t="s">
-        <v>421</v>
-      </c>
       <c r="E98" t="s">
         <v>420</v>
       </c>
-      <c r="F98" t="s">
-        <v>421</v>
-      </c>
-      <c r="G98" t="s">
-        <v>421</v>
-      </c>
-      <c r="H98" t="s">
-        <v>421</v>
-      </c>
-      <c r="I98" t="s">
-        <v>421</v>
-      </c>
-      <c r="J98" t="s">
-        <v>421</v>
-      </c>
       <c r="K98" t="s">
         <v>420</v>
-      </c>
-      <c r="L98" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -15064,24 +13387,6 @@
       <c r="B99">
         <v>36</v>
       </c>
-      <c r="C99" t="s">
-        <v>421</v>
-      </c>
-      <c r="D99" t="s">
-        <v>421</v>
-      </c>
-      <c r="E99" t="s">
-        <v>421</v>
-      </c>
-      <c r="F99" t="s">
-        <v>421</v>
-      </c>
-      <c r="G99" t="s">
-        <v>421</v>
-      </c>
-      <c r="H99" t="s">
-        <v>421</v>
-      </c>
       <c r="I99" t="s">
         <v>420</v>
       </c>
@@ -15102,24 +13407,6 @@
       <c r="B100">
         <v>32</v>
       </c>
-      <c r="C100" t="s">
-        <v>421</v>
-      </c>
-      <c r="D100" t="s">
-        <v>421</v>
-      </c>
-      <c r="E100" t="s">
-        <v>421</v>
-      </c>
-      <c r="F100" t="s">
-        <v>421</v>
-      </c>
-      <c r="G100" t="s">
-        <v>421</v>
-      </c>
-      <c r="H100" t="s">
-        <v>421</v>
-      </c>
       <c r="I100" t="s">
         <v>420</v>
       </c>
@@ -15140,73 +13427,43 @@
       <c r="B101">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
-        <v>421</v>
-      </c>
-      <c r="D101" t="s">
-        <v>421</v>
-      </c>
-      <c r="E101" t="s">
-        <v>421</v>
-      </c>
-      <c r="F101" t="s">
-        <v>421</v>
-      </c>
-      <c r="G101" t="s">
-        <v>421</v>
-      </c>
-      <c r="H101" t="s">
-        <v>421</v>
-      </c>
-      <c r="I101" t="s">
-        <v>421</v>
-      </c>
-      <c r="J101" t="s">
-        <v>421</v>
-      </c>
-      <c r="K101" t="s">
-        <v>421</v>
-      </c>
-      <c r="L101" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B102">
         <v>3921</v>
       </c>
       <c r="C102" t="s">
+        <v>436</v>
+      </c>
+      <c r="D102" t="s">
         <v>437</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>438</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>439</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>440</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>441</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>425</v>
+      </c>
+      <c r="J102" t="s">
+        <v>429</v>
+      </c>
+      <c r="K102" t="s">
         <v>442</v>
       </c>
-      <c r="I102" t="s">
-        <v>426</v>
-      </c>
-      <c r="J102" t="s">
-        <v>430</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>443</v>
-      </c>
-      <c r="L102" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -15227,27 +13484,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
         <v>445</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>447</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16752,7 +15009,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B78">
         <v>14</v>
@@ -17032,7 +15289,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -17326,27 +15583,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
         <v>445</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>447</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18851,7 +17108,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B78">
         <v>41</v>
@@ -19131,7 +17388,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -19151,7 +17408,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B93">
         <v>38</v>
@@ -19171,7 +17428,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -19431,7 +17688,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -19479,7 +17736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19487,27 +17744,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
         <v>445</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>447</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20952,7 +19209,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -21192,7 +19449,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -21212,7 +19469,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -21472,7 +19729,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -21528,12 +19785,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -21803,12 +20060,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
@@ -22464,12 +20721,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>169</v>
@@ -27232,12 +25489,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>183</v>
@@ -27561,12 +25818,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>185</v>
@@ -27862,12 +26119,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>225</v>
@@ -32024,12 +30281,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -32197,7 +30454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -32205,12 +30462,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>384</v>
